--- a/crowl/hyundai_crawl.xlsx
+++ b/crowl/hyundai_crawl.xlsx
@@ -457,6 +457,11 @@
           <t>043-909-4509</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7F</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -472,6 +477,11 @@
           <t>043-909-4711</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7F</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -487,6 +497,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7F</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -502,6 +517,11 @@
           <t>043-909-2680</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7F</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -517,6 +537,11 @@
           <t>043-909-2900</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7F</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -532,6 +557,11 @@
           <t>043-909-2682</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7F</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -547,6 +577,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7F</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -562,6 +597,11 @@
           <t>043-909-2680</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7F</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -577,6 +617,11 @@
           <t>043-909-4631</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6F</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -592,6 +637,11 @@
           <t>043-909-4646</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6F</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -607,6 +657,11 @@
           <t>043-909-4637</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6F</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -622,6 +677,11 @@
           <t>043-909-4621</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6F</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -637,6 +697,11 @@
           <t>043-909-4626</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6F</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -652,6 +717,11 @@
           <t>043-909-4625</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6F</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -667,6 +737,11 @@
           <t>043-909-4664</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6F</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -682,6 +757,11 @@
           <t>043-909-4636</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6F</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -697,6 +777,11 @@
           <t>043-909-4648</t>
         </is>
       </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6F</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -712,6 +797,11 @@
           <t>043-909-4624</t>
         </is>
       </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6F</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -727,6 +817,11 @@
           <t>043-909-4643</t>
         </is>
       </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6F</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -742,6 +837,11 @@
           <t>043-909-4159</t>
         </is>
       </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6F</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -757,6 +857,11 @@
           <t>043-909-4000</t>
         </is>
       </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6F</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -772,6 +877,11 @@
           <t>043-909-4560</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6F</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -787,6 +897,11 @@
           <t>043-909-4601</t>
         </is>
       </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6F</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -802,6 +917,11 @@
           <t>043-909-2888</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6F</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -817,6 +937,11 @@
           <t>043-909-2017</t>
         </is>
       </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6F</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -832,6 +957,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6F</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -847,6 +977,11 @@
           <t>043-909-4555</t>
         </is>
       </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -862,6 +997,11 @@
           <t>043-909-4507</t>
         </is>
       </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -877,6 +1017,11 @@
           <t>043-909-4551</t>
         </is>
       </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -892,6 +1037,11 @@
           <t>043-909-4550</t>
         </is>
       </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -907,6 +1057,11 @@
           <t>043-909-4506</t>
         </is>
       </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -922,6 +1077,11 @@
           <t>043-909-4557</t>
         </is>
       </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -937,6 +1097,11 @@
           <t>043-909-4552</t>
         </is>
       </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -952,6 +1117,11 @@
           <t>043-909-4553</t>
         </is>
       </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -967,6 +1137,11 @@
           <t>043-909-4564</t>
         </is>
       </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -982,6 +1157,11 @@
           <t>043-909-4535</t>
         </is>
       </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -997,6 +1177,11 @@
           <t>043-909-4533</t>
         </is>
       </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1012,6 +1197,11 @@
           <t>043-909-4532</t>
         </is>
       </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1027,6 +1217,11 @@
           <t>043-909-4542</t>
         </is>
       </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1042,6 +1237,11 @@
           <t>043-909-4540</t>
         </is>
       </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1057,6 +1257,11 @@
           <t>043-909-4538</t>
         </is>
       </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1072,6 +1277,11 @@
           <t>043-909-4543</t>
         </is>
       </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1087,6 +1297,11 @@
           <t>043-909-4539</t>
         </is>
       </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1102,6 +1317,11 @@
           <t>043-909-4542</t>
         </is>
       </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1117,6 +1337,11 @@
           <t>043-909-4547</t>
         </is>
       </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1132,6 +1357,11 @@
           <t>043-909-4548</t>
         </is>
       </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1147,6 +1377,11 @@
           <t>043-909-4530</t>
         </is>
       </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1162,6 +1397,11 @@
           <t>043-909-4545</t>
         </is>
       </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1177,6 +1417,11 @@
           <t>043-909-4542</t>
         </is>
       </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1192,6 +1437,11 @@
           <t>043-909-4534</t>
         </is>
       </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1207,6 +1457,11 @@
           <t>043-909-4567</t>
         </is>
       </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1222,6 +1477,11 @@
           <t>043-909-4521</t>
         </is>
       </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1237,6 +1497,11 @@
           <t>043-909-4522</t>
         </is>
       </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1252,6 +1517,11 @@
           <t>043-909-4523</t>
         </is>
       </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1267,6 +1537,11 @@
           <t>043-909-4524</t>
         </is>
       </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1282,6 +1557,11 @@
           <t>043-909-4525</t>
         </is>
       </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1297,6 +1577,11 @@
           <t>043-909-4546</t>
         </is>
       </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1312,6 +1597,11 @@
           <t>043-909-4524</t>
         </is>
       </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1327,6 +1617,11 @@
           <t>043-909-4531</t>
         </is>
       </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1342,6 +1637,11 @@
           <t>043-909-4516</t>
         </is>
       </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1357,6 +1657,11 @@
           <t>043-909-4517</t>
         </is>
       </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1372,6 +1677,11 @@
           <t>043-909-4510</t>
         </is>
       </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1387,6 +1697,11 @@
           <t>043-909-4511</t>
         </is>
       </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1402,6 +1717,11 @@
           <t>043-909-4518</t>
         </is>
       </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1417,6 +1737,11 @@
           <t>043-909-4514</t>
         </is>
       </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1432,6 +1757,11 @@
           <t>043-909-4513</t>
         </is>
       </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1447,6 +1777,11 @@
           <t>043-909-4520</t>
         </is>
       </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1462,6 +1797,11 @@
           <t>043-909-4512</t>
         </is>
       </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1477,6 +1817,11 @@
           <t>043-909-4596</t>
         </is>
       </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1492,6 +1837,11 @@
           <t>043-909-4515</t>
         </is>
       </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1507,6 +1857,11 @@
           <t>043-909-4549</t>
         </is>
       </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1522,6 +1877,11 @@
           <t>043-909-4344</t>
         </is>
       </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1537,6 +1897,11 @@
           <t>043-909-4340</t>
         </is>
       </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1552,6 +1917,11 @@
           <t>043-909-4342</t>
         </is>
       </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1567,6 +1937,11 @@
           <t>043-909-4346</t>
         </is>
       </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1582,6 +1957,11 @@
           <t>043-909-4333</t>
         </is>
       </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1597,6 +1977,11 @@
           <t>043-909-4341</t>
         </is>
       </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1612,6 +1997,11 @@
           <t>043-909-4339</t>
         </is>
       </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1627,6 +2017,11 @@
           <t>043-909-4526</t>
         </is>
       </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1642,6 +2037,11 @@
           <t>043-909-4345</t>
         </is>
       </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1657,6 +2057,11 @@
           <t>043-909-4338</t>
         </is>
       </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1672,6 +2077,11 @@
           <t>043-909-4350</t>
         </is>
       </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1687,6 +2097,11 @@
           <t>043-909-4503</t>
         </is>
       </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1702,6 +2117,11 @@
           <t>043-909-4335</t>
         </is>
       </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1717,6 +2137,11 @@
           <t>043-909-4529</t>
         </is>
       </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1732,6 +2157,11 @@
           <t>043-909-4519</t>
         </is>
       </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -1747,6 +2177,11 @@
           <t>043-909-4502</t>
         </is>
       </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -1762,6 +2197,11 @@
           <t>043-909-2910</t>
         </is>
       </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>5F</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -1777,6 +2217,11 @@
           <t>043-909-4460</t>
         </is>
       </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -1792,6 +2237,11 @@
           <t>043-909-4461</t>
         </is>
       </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -1807,6 +2257,11 @@
           <t>043-909-4450</t>
         </is>
       </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -1822,6 +2277,11 @@
           <t>043-909-4473</t>
         </is>
       </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -1837,6 +2297,11 @@
           <t>043-909-4476</t>
         </is>
       </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -1852,6 +2317,11 @@
           <t>043-909-4478</t>
         </is>
       </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -1867,6 +2337,11 @@
           <t>043-909-4444</t>
         </is>
       </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -1882,6 +2357,11 @@
           <t>043-909-4472</t>
         </is>
       </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -1897,6 +2377,11 @@
           <t>043-909-4472</t>
         </is>
       </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -1912,6 +2397,11 @@
           <t>043-909-4474</t>
         </is>
       </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -1927,6 +2417,11 @@
           <t>043-909-4455</t>
         </is>
       </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -1942,6 +2437,11 @@
           <t>043-909-4462</t>
         </is>
       </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -1957,6 +2457,11 @@
           <t>043-909-4458</t>
         </is>
       </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -1972,6 +2477,11 @@
           <t>043-909-4464</t>
         </is>
       </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -1987,6 +2497,11 @@
           <t>043-909-4457</t>
         </is>
       </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2002,6 +2517,11 @@
           <t>043-909-4463</t>
         </is>
       </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2017,6 +2537,11 @@
           <t>043-909-4471</t>
         </is>
       </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2032,6 +2557,11 @@
           <t>043-909-4454</t>
         </is>
       </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -2047,6 +2577,11 @@
           <t>043-909-4456</t>
         </is>
       </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -2062,6 +2597,11 @@
           <t>043-909-4477</t>
         </is>
       </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -2077,6 +2617,11 @@
           <t>043-909-4459</t>
         </is>
       </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -2092,6 +2637,11 @@
           <t>043-909-4445</t>
         </is>
       </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -2107,6 +2657,11 @@
           <t>043-909-4435</t>
         </is>
       </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -2122,6 +2677,11 @@
           <t>043-909-4438</t>
         </is>
       </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -2137,6 +2697,11 @@
           <t>043-909-4433</t>
         </is>
       </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -2152,6 +2717,11 @@
           <t>043-909-4448</t>
         </is>
       </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -2167,6 +2737,11 @@
           <t>043-909-4437</t>
         </is>
       </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -2182,6 +2757,11 @@
           <t>043-909-4441</t>
         </is>
       </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -2197,6 +2777,11 @@
           <t>043-909-4432</t>
         </is>
       </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -2212,6 +2797,11 @@
           <t>043-909-4436</t>
         </is>
       </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -2227,6 +2817,11 @@
           <t>043-909-4447</t>
         </is>
       </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -2242,6 +2837,11 @@
           <t>043-909-4470</t>
         </is>
       </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -2257,6 +2857,11 @@
           <t>043-909-4434</t>
         </is>
       </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -2272,6 +2877,11 @@
           <t>043-909-4431</t>
         </is>
       </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -2287,6 +2897,11 @@
           <t>043-909-4482</t>
         </is>
       </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -2302,6 +2917,11 @@
           <t>043-909-4482</t>
         </is>
       </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -2317,6 +2937,11 @@
           <t>043-909-4490</t>
         </is>
       </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -2332,6 +2957,11 @@
           <t>043-909-4488</t>
         </is>
       </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -2347,6 +2977,11 @@
           <t>043-909-4484</t>
         </is>
       </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -2362,6 +2997,11 @@
           <t>043-909-4486</t>
         </is>
       </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -2377,6 +3017,11 @@
           <t>043-909-4412</t>
         </is>
       </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -2392,6 +3037,11 @@
           <t>043-909-4421</t>
         </is>
       </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -2407,6 +3057,11 @@
           <t>043-909-4401</t>
         </is>
       </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -2422,6 +3077,11 @@
           <t>043-909-4414</t>
         </is>
       </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -2437,6 +3097,11 @@
           <t>043-909-4420</t>
         </is>
       </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -2452,6 +3117,11 @@
           <t>043-909-4419</t>
         </is>
       </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -2467,6 +3137,11 @@
           <t>043-909-4415</t>
         </is>
       </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -2482,6 +3157,11 @@
           <t>043-909-4416</t>
         </is>
       </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -2497,6 +3177,11 @@
           <t>043-909-4418</t>
         </is>
       </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -2512,6 +3197,11 @@
           <t>043-909-4413</t>
         </is>
       </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -2527,6 +3217,11 @@
           <t>043-909-4422</t>
         </is>
       </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -2542,6 +3237,11 @@
           <t>043-909-4411</t>
         </is>
       </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -2557,6 +3257,11 @@
           <t>043-909-4499</t>
         </is>
       </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>4F</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -2572,6 +3277,11 @@
           <t>043-909-4372</t>
         </is>
       </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -2587,6 +3297,11 @@
           <t>043-909-4308</t>
         </is>
       </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -2602,6 +3317,11 @@
           <t>043-909-4301</t>
         </is>
       </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -2617,6 +3337,11 @@
           <t>043-909-4347</t>
         </is>
       </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -2632,6 +3357,11 @@
           <t>043-909-4307</t>
         </is>
       </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -2647,6 +3377,11 @@
           <t>043-909-4306</t>
         </is>
       </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -2662,6 +3397,11 @@
           <t>043-909-4319</t>
         </is>
       </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -2677,6 +3417,11 @@
           <t>043-909-4314</t>
         </is>
       </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -2692,6 +3437,11 @@
           <t>043-909-4373</t>
         </is>
       </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -2707,6 +3457,11 @@
           <t>043-909-4317</t>
         </is>
       </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -2722,6 +3477,11 @@
           <t>043-909-4312</t>
         </is>
       </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -2737,6 +3497,11 @@
           <t>043-909-4371</t>
         </is>
       </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -2752,6 +3517,11 @@
           <t>043-909-4362</t>
         </is>
       </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -2767,6 +3537,11 @@
           <t>043-909-4222</t>
         </is>
       </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -2782,6 +3557,11 @@
           <t>043-909-4360</t>
         </is>
       </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -2797,6 +3577,11 @@
           <t>043-909-4221</t>
         </is>
       </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -2812,6 +3597,11 @@
           <t>043-909-4325</t>
         </is>
       </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -2827,6 +3617,11 @@
           <t>043-909-4329</t>
         </is>
       </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -2842,6 +3637,11 @@
           <t>043-909-4326</t>
         </is>
       </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -2857,6 +3657,11 @@
           <t>043-909-4327</t>
         </is>
       </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -2872,6 +3677,11 @@
           <t>043-909-4328</t>
         </is>
       </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -2887,6 +3697,11 @@
           <t>043-909-4585</t>
         </is>
       </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -2902,6 +3717,11 @@
           <t>043-909-4369</t>
         </is>
       </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -2917,6 +3737,11 @@
           <t>043-909-4568</t>
         </is>
       </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -2932,6 +3757,11 @@
           <t>043-909-4581</t>
         </is>
       </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -2947,6 +3777,11 @@
           <t>043-909-4368</t>
         </is>
       </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -2962,6 +3797,11 @@
           <t>043-909-4584</t>
         </is>
       </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -2977,6 +3817,11 @@
           <t>043-909-4504</t>
         </is>
       </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -2992,6 +3837,11 @@
           <t>043-909-4594</t>
         </is>
       </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -3007,6 +3857,11 @@
           <t>043-909-4570</t>
         </is>
       </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -3022,6 +3877,11 @@
           <t>043-909-4363</t>
         </is>
       </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -3037,6 +3897,11 @@
           <t>043-909-4554</t>
         </is>
       </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -3052,6 +3917,11 @@
           <t>043-909-4367</t>
         </is>
       </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -3067,6 +3937,11 @@
           <t>043-909-4576</t>
         </is>
       </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -3082,6 +3957,11 @@
           <t>043-909-4575</t>
         </is>
       </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -3097,6 +3977,11 @@
           <t>043-909-4587</t>
         </is>
       </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -3112,6 +3997,11 @@
           <t>043-909-4589</t>
         </is>
       </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -3127,6 +4017,11 @@
           <t>043-909-4582</t>
         </is>
       </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -3142,6 +4037,11 @@
           <t>043-909-4578</t>
         </is>
       </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -3157,6 +4057,11 @@
           <t>043-909-4593</t>
         </is>
       </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -3172,6 +4077,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -3187,6 +4097,11 @@
           <t>043-909-4571</t>
         </is>
       </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -3202,6 +4117,11 @@
           <t>043-909-4505</t>
         </is>
       </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -3217,6 +4137,11 @@
           <t>043-909-4591</t>
         </is>
       </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -3232,6 +4157,11 @@
           <t>043-909-4590</t>
         </is>
       </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -3247,6 +4177,11 @@
           <t>043-909-4364</t>
         </is>
       </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -3262,6 +4197,11 @@
           <t>043-909-4573</t>
         </is>
       </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -3277,6 +4217,11 @@
           <t>043-909-4597</t>
         </is>
       </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -3292,6 +4237,11 @@
           <t>043-909-4574</t>
         </is>
       </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -3307,6 +4257,11 @@
           <t>043-909-4577</t>
         </is>
       </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -3322,6 +4277,11 @@
           <t>043-909-4559</t>
         </is>
       </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -3337,6 +4297,11 @@
           <t>043-909-4583</t>
         </is>
       </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -3352,6 +4317,11 @@
           <t>043-909-4370</t>
         </is>
       </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -3367,6 +4337,11 @@
           <t>043-909-4508</t>
         </is>
       </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -3382,6 +4357,11 @@
           <t>043-909-4588</t>
         </is>
       </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -3397,6 +4377,11 @@
           <t>043-909-4377</t>
         </is>
       </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -3412,6 +4397,11 @@
           <t>043-909-2670</t>
         </is>
       </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -3427,6 +4417,11 @@
           <t>043-909-4365</t>
         </is>
       </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -3442,6 +4437,11 @@
           <t>043-909-4366</t>
         </is>
       </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -3457,6 +4457,11 @@
           <t>043-909-4348</t>
         </is>
       </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -3472,6 +4477,11 @@
           <t>043-909-4251</t>
         </is>
       </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -3487,6 +4497,11 @@
           <t>043-909-4286</t>
         </is>
       </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -3502,6 +4517,11 @@
           <t>043-909-4255</t>
         </is>
       </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -3517,6 +4537,11 @@
           <t>043-909-4224</t>
         </is>
       </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -3532,6 +4557,11 @@
           <t>043-909-4261</t>
         </is>
       </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -3547,6 +4577,11 @@
           <t>043-909-4264</t>
         </is>
       </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -3562,6 +4597,11 @@
           <t>043-909-4287</t>
         </is>
       </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -3577,6 +4617,11 @@
           <t>043-909-4250</t>
         </is>
       </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -3592,6 +4637,11 @@
           <t>043-909-4277</t>
         </is>
       </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -3607,6 +4657,11 @@
           <t>043-909-4258</t>
         </is>
       </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -3622,6 +4677,11 @@
           <t>043-909-4253</t>
         </is>
       </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -3637,6 +4697,11 @@
           <t>043-909-4280</t>
         </is>
       </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -3652,6 +4717,11 @@
           <t>043-909-4289</t>
         </is>
       </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -3667,6 +4737,11 @@
           <t>043-909-4263</t>
         </is>
       </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -3682,6 +4757,11 @@
           <t>043-909-4254</t>
         </is>
       </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -3697,6 +4777,11 @@
           <t>043-909-4275</t>
         </is>
       </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -3712,6 +4797,11 @@
           <t>043-909-4268</t>
         </is>
       </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -3727,6 +4817,11 @@
           <t>043-909-4252</t>
         </is>
       </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -3742,6 +4837,11 @@
           <t>043-909-4281</t>
         </is>
       </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -3757,6 +4857,11 @@
           <t>043-909-4260</t>
         </is>
       </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -3772,6 +4877,11 @@
           <t>043-909-4262</t>
         </is>
       </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -3787,6 +4897,11 @@
           <t>043-909-4279</t>
         </is>
       </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -3802,6 +4917,11 @@
           <t>043-909-4284</t>
         </is>
       </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -3817,6 +4937,11 @@
           <t>043-909-4223</t>
         </is>
       </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -3832,6 +4957,11 @@
           <t>043-909-4256</t>
         </is>
       </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -3847,6 +4977,11 @@
           <t>043-909-4266</t>
         </is>
       </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -3862,6 +4997,11 @@
           <t>043-909-4225</t>
         </is>
       </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -3877,6 +5017,11 @@
           <t>043-909-4214</t>
         </is>
       </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -3892,6 +5037,11 @@
           <t>043-909-4203</t>
         </is>
       </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -3907,6 +5057,11 @@
           <t>043-909-4209</t>
         </is>
       </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -3922,6 +5077,11 @@
           <t>043-909-4217</t>
         </is>
       </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -3937,6 +5097,11 @@
           <t>043-909-4210</t>
         </is>
       </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -3952,6 +5117,11 @@
           <t>043-909-4211</t>
         </is>
       </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -3967,6 +5137,11 @@
           <t>043-909-4204</t>
         </is>
       </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -3982,6 +5157,11 @@
           <t>043-909-4219</t>
         </is>
       </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -3997,6 +5177,11 @@
           <t>043-909-4208</t>
         </is>
       </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -4012,6 +5197,11 @@
           <t>043-909-4226</t>
         </is>
       </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -4027,6 +5217,11 @@
           <t>043-909-4259</t>
         </is>
       </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -4042,6 +5237,11 @@
           <t>043-909-4206</t>
         </is>
       </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -4057,6 +5257,11 @@
           <t>043-909-4218</t>
         </is>
       </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -4072,6 +5277,11 @@
           <t>043-909-4205</t>
         </is>
       </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -4087,6 +5297,11 @@
           <t>043-909-4213</t>
         </is>
       </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -4102,6 +5317,11 @@
           <t>043-909-4971</t>
         </is>
       </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -4117,6 +5337,11 @@
           <t>043-909-4963</t>
         </is>
       </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -4132,6 +5357,11 @@
           <t>043-909-4967</t>
         </is>
       </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -4147,6 +5377,11 @@
           <t>043-909-4973</t>
         </is>
       </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -4162,6 +5397,11 @@
           <t>043-909-4996</t>
         </is>
       </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -4177,6 +5417,11 @@
           <t>043-909-4962</t>
         </is>
       </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -4192,6 +5437,11 @@
           <t>043-909-4961</t>
         </is>
       </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -4207,6 +5457,11 @@
           <t>043-909-4972</t>
         </is>
       </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -4222,6 +5477,11 @@
           <t>043-909-4994</t>
         </is>
       </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -4237,6 +5497,11 @@
           <t>043-909-4969</t>
         </is>
       </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -4252,6 +5517,11 @@
           <t>043-909-4964</t>
         </is>
       </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -4267,6 +5537,11 @@
           <t>043-909-4990</t>
         </is>
       </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -4282,6 +5557,11 @@
           <t>043-909-4981</t>
         </is>
       </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -4297,6 +5577,11 @@
           <t>043-909-4982</t>
         </is>
       </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -4312,6 +5597,11 @@
           <t>043-909-4989</t>
         </is>
       </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -4327,6 +5617,11 @@
           <t>043-909-4992</t>
         </is>
       </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -4342,6 +5637,11 @@
           <t>043-909-4980</t>
         </is>
       </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -4357,6 +5657,11 @@
           <t>043-909-4845</t>
         </is>
       </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -4372,6 +5677,11 @@
           <t>043-909-4842</t>
         </is>
       </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -4387,6 +5697,11 @@
           <t>043-909-4831</t>
         </is>
       </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -4402,6 +5717,11 @@
           <t>043-909-4856</t>
         </is>
       </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -4417,6 +5737,11 @@
           <t>043-909-4978</t>
         </is>
       </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -4432,6 +5757,11 @@
           <t>043-909-4814</t>
         </is>
       </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -4447,6 +5777,11 @@
           <t>043-909-4987</t>
         </is>
       </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -4462,6 +5797,11 @@
           <t>043-909-4965</t>
         </is>
       </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -4477,6 +5817,11 @@
           <t>043-909-4993</t>
         </is>
       </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -4492,6 +5837,11 @@
           <t>043-909-4984</t>
         </is>
       </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -4507,6 +5857,11 @@
           <t>043-909-4960</t>
         </is>
       </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -4522,6 +5877,11 @@
           <t>043-909-4966</t>
         </is>
       </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -4537,6 +5897,11 @@
           <t>043-909-4103</t>
         </is>
       </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -4552,6 +5917,11 @@
           <t>043-909-4108</t>
         </is>
       </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -4567,6 +5937,11 @@
           <t>043-909-4176</t>
         </is>
       </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -4582,6 +5957,11 @@
           <t>043-909-4104</t>
         </is>
       </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -4597,6 +5977,11 @@
           <t>043-909-4175</t>
         </is>
       </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -4612,6 +5997,11 @@
           <t>043-909-4105</t>
         </is>
       </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -4627,6 +6017,11 @@
           <t>043-909-4102</t>
         </is>
       </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -4642,6 +6037,11 @@
           <t>043-909-4180</t>
         </is>
       </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -4657,6 +6057,11 @@
           <t>043-909-4106</t>
         </is>
       </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -4672,6 +6077,11 @@
           <t>043-909-4100</t>
         </is>
       </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -4687,6 +6097,11 @@
           <t>043-909-4116</t>
         </is>
       </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -4702,6 +6117,11 @@
           <t>043-909-4132</t>
         </is>
       </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -4717,6 +6137,11 @@
           <t>043-909-4127</t>
         </is>
       </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -4732,6 +6157,11 @@
           <t>043-909-4184</t>
         </is>
       </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -4747,6 +6177,11 @@
           <t>043-909-4136</t>
         </is>
       </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -4762,6 +6197,11 @@
           <t>043-909-4187</t>
         </is>
       </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -4777,6 +6217,11 @@
           <t>043-909-4123</t>
         </is>
       </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -4792,6 +6237,11 @@
           <t>043-909-4129</t>
         </is>
       </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -4807,6 +6257,11 @@
           <t>043-909-4118</t>
         </is>
       </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -4822,6 +6277,11 @@
           <t>043-909-4135</t>
         </is>
       </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -4837,6 +6297,11 @@
           <t>043-909-4137</t>
         </is>
       </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -4852,6 +6317,11 @@
           <t>043-909-4117</t>
         </is>
       </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -4867,6 +6337,11 @@
           <t>043-909-4107</t>
         </is>
       </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -4882,6 +6357,11 @@
           <t>043-909-4120</t>
         </is>
       </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -4897,6 +6377,11 @@
           <t>043-909-4126</t>
         </is>
       </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -4912,6 +6397,11 @@
           <t>043-909-4110</t>
         </is>
       </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -4927,6 +6417,11 @@
           <t>043-909-4124</t>
         </is>
       </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -4942,6 +6437,11 @@
           <t>043-909-4138</t>
         </is>
       </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -4957,6 +6457,11 @@
           <t>043-909-4114</t>
         </is>
       </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -4972,6 +6477,11 @@
           <t>043-909-4111</t>
         </is>
       </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -4987,6 +6497,11 @@
           <t>043-909-4133</t>
         </is>
       </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -5002,6 +6517,11 @@
           <t>043-909-4128</t>
         </is>
       </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -5017,6 +6537,11 @@
           <t>043-909-4125</t>
         </is>
       </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -5032,6 +6557,11 @@
           <t>043-909-4186</t>
         </is>
       </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -5047,6 +6577,11 @@
           <t>043-909-4155</t>
         </is>
       </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -5062,6 +6597,11 @@
           <t>043-909-4115</t>
         </is>
       </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -5077,6 +6617,11 @@
           <t>043-909-4122</t>
         </is>
       </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -5092,6 +6637,11 @@
           <t>043-909-4181</t>
         </is>
       </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -5107,6 +6657,11 @@
           <t>043-909-4131</t>
         </is>
       </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -5122,6 +6677,11 @@
           <t>043-909-4147</t>
         </is>
       </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -5137,6 +6697,11 @@
           <t>043-909-4149</t>
         </is>
       </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -5152,6 +6717,11 @@
           <t>043-909-4141</t>
         </is>
       </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -5167,6 +6737,11 @@
           <t>043-909-4142</t>
         </is>
       </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -5182,6 +6757,11 @@
           <t>043-909-4167</t>
         </is>
       </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -5197,6 +6777,11 @@
           <t>043-909-4140</t>
         </is>
       </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -5212,6 +6797,11 @@
           <t>043-909-4157</t>
         </is>
       </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -5227,6 +6817,11 @@
           <t>043-909-4143</t>
         </is>
       </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -5242,6 +6837,11 @@
           <t>043-909-4148</t>
         </is>
       </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -5257,6 +6857,11 @@
           <t>043-909-4144</t>
         </is>
       </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -5272,6 +6877,11 @@
           <t>043-909-4139</t>
         </is>
       </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -5287,6 +6897,11 @@
           <t>043-909-4151</t>
         </is>
       </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -5302,6 +6917,11 @@
           <t>043-909-4150</t>
         </is>
       </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -5317,6 +6937,11 @@
           <t>043-909-4156</t>
         </is>
       </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -5332,6 +6957,11 @@
           <t>043-909-4154</t>
         </is>
       </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -5347,6 +6977,11 @@
           <t>043-909-4158</t>
         </is>
       </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -5362,6 +6997,11 @@
           <t>043-909-4153</t>
         </is>
       </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -5377,6 +7017,11 @@
           <t>043-909-4145</t>
         </is>
       </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -5392,6 +7037,11 @@
           <t>043-909-4192</t>
         </is>
       </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -5407,6 +7057,11 @@
           <t>043-909-4191</t>
         </is>
       </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -5422,6 +7077,11 @@
           <t>043-909-4188</t>
         </is>
       </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -5437,6 +7097,11 @@
           <t>043-909-4179</t>
         </is>
       </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -5452,6 +7117,11 @@
           <t>043-909-4189</t>
         </is>
       </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -5467,6 +7137,11 @@
           <t>043-909-4940</t>
         </is>
       </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -5482,6 +7157,11 @@
           <t>043-909-4932</t>
         </is>
       </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -5497,6 +7177,11 @@
           <t>043-909-4944</t>
         </is>
       </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -5512,6 +7197,11 @@
           <t>043-909-4938</t>
         </is>
       </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -5527,6 +7217,11 @@
           <t>043-909-4942</t>
         </is>
       </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -5542,6 +7237,11 @@
           <t>043-909-4320</t>
         </is>
       </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -5557,6 +7257,11 @@
           <t>043-909-4943</t>
         </is>
       </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -5572,6 +7277,11 @@
           <t>043-909-4906</t>
         </is>
       </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -5587,6 +7297,11 @@
           <t>043-909-4927</t>
         </is>
       </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -5602,6 +7317,11 @@
           <t>043-909-4924</t>
         </is>
       </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -5617,6 +7337,11 @@
           <t>043-909-4939</t>
         </is>
       </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -5632,6 +7357,11 @@
           <t>043-909-4926</t>
         </is>
       </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -5647,6 +7377,11 @@
           <t>043-909-4945</t>
         </is>
       </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -5662,6 +7397,11 @@
           <t>043-909-4976</t>
         </is>
       </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -5677,6 +7417,11 @@
           <t>043-909-4928</t>
         </is>
       </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -5692,6 +7437,11 @@
           <t>043-909-4923</t>
         </is>
       </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -5707,6 +7457,11 @@
           <t>043-909-4941</t>
         </is>
       </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -5722,6 +7477,11 @@
           <t>043-909-4947</t>
         </is>
       </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -5737,6 +7497,11 @@
           <t>043-909-4934</t>
         </is>
       </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -5752,6 +7517,11 @@
           <t>043-909-4952</t>
         </is>
       </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -5767,6 +7537,11 @@
           <t>043-909-4935</t>
         </is>
       </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -5782,6 +7557,11 @@
           <t>043-909-4931</t>
         </is>
       </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -5797,6 +7577,11 @@
           <t>043-909-4953</t>
         </is>
       </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -5812,6 +7597,11 @@
           <t>043-909-4900</t>
         </is>
       </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -5827,6 +7617,11 @@
           <t>043-909-4907</t>
         </is>
       </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -5842,6 +7637,11 @@
           <t>043-909-4912</t>
         </is>
       </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -5857,6 +7657,11 @@
           <t>043-909-4902</t>
         </is>
       </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -5872,6 +7677,11 @@
           <t>043-909-4920</t>
         </is>
       </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -5887,6 +7697,11 @@
           <t>043-909-4901</t>
         </is>
       </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -5902,6 +7717,11 @@
           <t>043-909-4913</t>
         </is>
       </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -5917,6 +7737,11 @@
           <t>043-909-4921</t>
         </is>
       </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -5932,6 +7757,11 @@
           <t>043-909-4911</t>
         </is>
       </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -5947,6 +7777,11 @@
           <t>043-909-4929</t>
         </is>
       </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -5962,6 +7797,11 @@
           <t>043-909-4910</t>
         </is>
       </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -5977,6 +7817,11 @@
           <t>043-909-4909</t>
         </is>
       </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -5992,6 +7837,11 @@
           <t>043-909-4914</t>
         </is>
       </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -6007,6 +7857,11 @@
           <t>043-909-4566</t>
         </is>
       </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -6022,6 +7877,11 @@
           <t>043-909-4501</t>
         </is>
       </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -6037,6 +7897,11 @@
           <t>043-909-4950</t>
         </is>
       </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -6052,6 +7917,11 @@
           <t>043-909-2557</t>
         </is>
       </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -6067,6 +7937,11 @@
           <t>043-909-4035</t>
         </is>
       </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -6082,6 +7957,11 @@
           <t>043-909-4028</t>
         </is>
       </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -6097,6 +7977,11 @@
           <t>043-909-4048</t>
         </is>
       </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -6112,6 +7997,11 @@
           <t>043-909-4035</t>
         </is>
       </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -6127,6 +8017,11 @@
           <t>043-909-4035</t>
         </is>
       </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -6142,6 +8037,11 @@
           <t>043-909-4028</t>
         </is>
       </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -6157,6 +8057,11 @@
           <t>043-909-4023</t>
         </is>
       </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -6172,6 +8077,11 @@
           <t>043-909-4035</t>
         </is>
       </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -6187,6 +8097,11 @@
           <t>043-909-2813</t>
         </is>
       </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -6202,6 +8117,11 @@
           <t>043-909-4069</t>
         </is>
       </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -6217,6 +8137,11 @@
           <t>043-909-4054</t>
         </is>
       </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -6232,6 +8157,11 @@
           <t>043-909-2813</t>
         </is>
       </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -6247,6 +8177,11 @@
           <t>043-909-4087</t>
         </is>
       </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -6262,6 +8197,11 @@
           <t>043-909-4087</t>
         </is>
       </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -6277,6 +8217,11 @@
           <t>043-909-4082</t>
         </is>
       </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -6292,6 +8237,11 @@
           <t>043-909-4062</t>
         </is>
       </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -6307,6 +8257,11 @@
           <t>043-909-4069</t>
         </is>
       </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -6322,6 +8277,11 @@
           <t>043-909-4072</t>
         </is>
       </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -6337,6 +8297,11 @@
           <t>043-909-4083</t>
         </is>
       </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -6352,6 +8317,11 @@
           <t>043-909-2813</t>
         </is>
       </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -6367,6 +8337,11 @@
           <t>043-909-2813</t>
         </is>
       </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -6382,6 +8357,11 @@
           <t>043-909-4084</t>
         </is>
       </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -6397,6 +8377,11 @@
           <t>043-909-4088</t>
         </is>
       </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -6412,6 +8397,11 @@
           <t>043-909-4062</t>
         </is>
       </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -6427,6 +8417,11 @@
           <t>043-909-4072</t>
         </is>
       </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -6442,6 +8437,11 @@
           <t>043-909-4043</t>
         </is>
       </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -6457,6 +8457,11 @@
           <t>043-909-4069</t>
         </is>
       </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -6472,6 +8477,11 @@
           <t>043-909-4054</t>
         </is>
       </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -6487,6 +8497,11 @@
           <t>043-909-2813</t>
         </is>
       </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -6502,6 +8517,11 @@
           <t>043-909-4043</t>
         </is>
       </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -6517,6 +8537,11 @@
           <t>043-909-2812</t>
         </is>
       </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -6532,6 +8557,11 @@
           <t>043-909-4054</t>
         </is>
       </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -6547,6 +8577,11 @@
           <t>043-909-4086</t>
         </is>
       </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -6562,6 +8597,11 @@
           <t>043-909-2813</t>
         </is>
       </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -6577,6 +8617,11 @@
           <t>043-909-2812</t>
         </is>
       </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -6592,6 +8637,11 @@
           <t>043-909-2812</t>
         </is>
       </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -6607,6 +8657,11 @@
           <t>043-909-2813</t>
         </is>
       </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -6622,6 +8677,11 @@
           <t>043-909-4062</t>
         </is>
       </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -6637,6 +8697,11 @@
           <t>043-909-4073</t>
         </is>
       </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -6652,6 +8717,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -6667,6 +8737,11 @@
           <t>043-909-4022</t>
         </is>
       </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -6682,6 +8757,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -6697,6 +8777,11 @@
           <t>043-909-4021</t>
         </is>
       </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -6712,6 +8797,11 @@
           <t>043-909-4038</t>
         </is>
       </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -6727,6 +8817,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -6742,6 +8837,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -6757,6 +8857,11 @@
           <t>043-909-4040</t>
         </is>
       </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -6772,6 +8877,11 @@
           <t>043-909-4041</t>
         </is>
       </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -6787,6 +8897,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -6802,6 +8917,11 @@
           <t>043-909-4025</t>
         </is>
       </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -6817,6 +8937,11 @@
           <t>043-909-4024</t>
         </is>
       </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -6832,6 +8957,11 @@
           <t>043-909-4026</t>
         </is>
       </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -6847,6 +8977,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -6862,6 +8997,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -6877,6 +9017,11 @@
           <t>043-909-4097</t>
         </is>
       </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -6892,6 +9037,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -6907,6 +9057,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -6922,6 +9077,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -6937,6 +9097,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -6952,6 +9117,11 @@
           <t>043-909-4072</t>
         </is>
       </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -6967,6 +9137,11 @@
           <t>043-909-4075</t>
         </is>
       </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -6982,6 +9157,11 @@
           <t>043-909-4048</t>
         </is>
       </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -6997,6 +9177,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -7012,6 +9197,11 @@
           <t>043-909-4032</t>
         </is>
       </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -7027,6 +9217,11 @@
           <t>043-909-4850</t>
         </is>
       </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -7042,6 +9237,11 @@
           <t>043-909-4096</t>
         </is>
       </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -7057,6 +9257,11 @@
           <t>043-909-4078</t>
         </is>
       </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -7072,6 +9277,11 @@
           <t>043-909-4871</t>
         </is>
       </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -7087,6 +9297,11 @@
           <t>043-909-4801</t>
         </is>
       </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -7102,6 +9317,11 @@
           <t>043-909-4812</t>
         </is>
       </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -7117,6 +9337,11 @@
           <t>043-909-4802</t>
         </is>
       </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -7132,6 +9357,11 @@
           <t>043-909-4864</t>
         </is>
       </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -7147,6 +9377,11 @@
           <t>043-909-4806</t>
         </is>
       </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -7162,6 +9397,11 @@
           <t>043-909-4813</t>
         </is>
       </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -7177,6 +9417,11 @@
           <t>043-909-4837</t>
         </is>
       </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -7192,6 +9437,11 @@
           <t>043-909-4805</t>
         </is>
       </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -7207,6 +9457,11 @@
           <t>043-909-4803</t>
         </is>
       </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -7222,6 +9477,11 @@
           <t>043-909-4815</t>
         </is>
       </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -7237,6 +9497,11 @@
           <t>043-909-4863</t>
         </is>
       </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -7252,6 +9517,11 @@
           <t>043-909-4858</t>
         </is>
       </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -7267,6 +9537,11 @@
           <t>043-909-4800</t>
         </is>
       </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -7282,6 +9557,11 @@
           <t>043-909-4821</t>
         </is>
       </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -7297,6 +9577,11 @@
           <t>043-909-4817</t>
         </is>
       </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -7312,6 +9597,11 @@
           <t>043-909-4872</t>
         </is>
       </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -7327,6 +9617,11 @@
           <t>043-909-4870</t>
         </is>
       </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -7342,6 +9637,11 @@
           <t>043-909-4819</t>
         </is>
       </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -7357,6 +9657,11 @@
           <t>043-909-4811</t>
         </is>
       </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -7372,6 +9677,11 @@
           <t>043-909-4804</t>
         </is>
       </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -7387,6 +9697,11 @@
           <t>043-909-4975</t>
         </is>
       </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -7402,6 +9717,11 @@
           <t>043-909-4997</t>
         </is>
       </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -7417,6 +9737,11 @@
           <t>043-909-4991</t>
         </is>
       </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -7432,6 +9757,11 @@
           <t>043-909-4830</t>
         </is>
       </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -7447,6 +9777,11 @@
           <t>043-909-4881</t>
         </is>
       </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -7462,6 +9797,11 @@
           <t>043-909-4843</t>
         </is>
       </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -7477,6 +9817,11 @@
           <t>043-909-4829</t>
         </is>
       </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -7492,6 +9837,11 @@
           <t>043-909-4977</t>
         </is>
       </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -7507,6 +9857,11 @@
           <t>043-909-4916</t>
         </is>
       </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -7522,6 +9877,11 @@
           <t>043-909-4808</t>
         </is>
       </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -7537,6 +9897,11 @@
           <t>043-909-4882</t>
         </is>
       </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -7552,6 +9917,11 @@
           <t>043-909-4847</t>
         </is>
       </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -7567,6 +9937,11 @@
           <t>043-909-4917</t>
         </is>
       </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -7582,6 +9957,11 @@
           <t>043-909-4849</t>
         </is>
       </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -7597,6 +9977,11 @@
           <t>043-909-4847</t>
         </is>
       </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -7612,6 +9997,11 @@
           <t>043-909-4844</t>
         </is>
       </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -7627,6 +10017,11 @@
           <t>043-909-4352</t>
         </is>
       </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -7642,6 +10037,11 @@
           <t>043-909-4278</t>
         </is>
       </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -7657,6 +10057,11 @@
           <t>043-909-4892</t>
         </is>
       </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -7672,6 +10077,11 @@
           <t>1522-3232</t>
         </is>
       </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -7687,6 +10097,11 @@
           <t>043-909-4890</t>
         </is>
       </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -7702,6 +10117,11 @@
           <t>043-909-4893</t>
         </is>
       </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -7717,6 +10137,11 @@
           <t>043-909-4891</t>
         </is>
       </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -7732,6 +10157,11 @@
           <t>043-909-4834</t>
         </is>
       </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -7747,6 +10177,11 @@
           <t>043-909-4865</t>
         </is>
       </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -7762,6 +10197,11 @@
           <t>043-909-4855</t>
         </is>
       </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -7777,6 +10217,11 @@
           <t>043-909-4880</t>
         </is>
       </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -7792,6 +10237,11 @@
           <t>043-909-4825</t>
         </is>
       </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -7807,6 +10257,11 @@
           <t>043-909-4820</t>
         </is>
       </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -7822,6 +10277,11 @@
           <t>043-909-4838</t>
         </is>
       </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -7837,6 +10297,11 @@
           <t>043-909-2870</t>
         </is>
       </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -7852,6 +10317,11 @@
           <t>043-909-4290</t>
         </is>
       </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -7867,6 +10337,11 @@
           <t>043-909-2880</t>
         </is>
       </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -7882,6 +10357,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -7897,6 +10377,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
@@ -7912,6 +10397,11 @@
           <t>043-909-2070</t>
         </is>
       </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
@@ -7927,6 +10417,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
@@ -7942,6 +10437,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
@@ -7955,6 +10455,11 @@
       <c r="C502" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>B3</t>
         </is>
       </c>
     </row>
